--- a/SuppXLS/Scen_B_TRA_F_ModalShares.xlsx
+++ b/SuppXLS/Scen_B_TRA_F_ModalShares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B938705-B60D-4426-9E5B-A16260B45E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33564818-6FB3-433D-AF6E-ED54FFDF4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2040" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="16" r:id="rId1"/>
@@ -514,14 +514,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,7 +798,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -887,6 +888,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1292,9 +1294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1332,9 +1334,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1367,26 +1369,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1419,26 +1404,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1619,7 +1587,7 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="6" width="14.140625" customWidth="1"/>
@@ -1632,7 +1600,7 @@
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1660,7 +1628,7 @@
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1688,7 +1656,7 @@
       <c r="Y2" s="28"/>
       <c r="Z2" s="28"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -1716,7 +1684,7 @@
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1744,7 +1712,7 @@
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -1772,7 +1740,7 @@
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -1800,7 +1768,7 @@
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -1828,7 +1796,7 @@
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -1856,7 +1824,7 @@
       <c r="Y8" s="28"/>
       <c r="Z8" s="28"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1884,7 +1852,7 @@
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -1912,7 +1880,7 @@
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -1940,7 +1908,7 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -1968,7 +1936,7 @@
       <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -1996,7 +1964,7 @@
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -2024,7 +1992,7 @@
       <c r="Y14" s="28"/>
       <c r="Z14" s="28"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -2052,13 +2020,13 @@
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1">
+      <c r="A16" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
@@ -2082,7 +2050,7 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -2110,7 +2078,7 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -2138,15 +2106,15 @@
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
@@ -2170,15 +2138,15 @@
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
@@ -2202,7 +2170,7 @@
       <c r="Y20" s="28"/>
       <c r="Z20" s="28"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="34" t="s">
         <v>97</v>
       </c>
@@ -2234,7 +2202,7 @@
       <c r="Y21" s="28"/>
       <c r="Z21" s="28"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -2262,15 +2230,15 @@
       <c r="Y22" s="28"/>
       <c r="Z22" s="28"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -2294,13 +2262,13 @@
       <c r="Y23" s="28"/>
       <c r="Z23" s="28"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1">
       <c r="A24" s="34"/>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
@@ -2324,7 +2292,7 @@
       <c r="Y24" s="28"/>
       <c r="Z24" s="28"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1">
       <c r="A25" s="34"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -2352,15 +2320,15 @@
       <c r="Y25" s="28"/>
       <c r="Z25" s="28"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -2384,13 +2352,13 @@
       <c r="Y26" s="28"/>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1">
       <c r="A27" s="34"/>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -2414,7 +2382,7 @@
       <c r="Y27" s="28"/>
       <c r="Z27" s="28"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -2442,7 +2410,7 @@
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="34" t="s">
         <v>100</v>
       </c>
@@ -2474,15 +2442,15 @@
       <c r="Y29" s="28"/>
       <c r="Z29" s="28"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="28"/>
@@ -2506,15 +2474,15 @@
       <c r="Y30" s="28"/>
       <c r="Z30" s="28"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="28"/>
@@ -2538,7 +2506,7 @@
       <c r="Y31" s="28"/>
       <c r="Z31" s="28"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="40"/>
       <c r="B32" s="41" t="s">
         <v>105</v>
@@ -2568,7 +2536,7 @@
       <c r="Y32" s="28"/>
       <c r="Z32" s="28"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -2596,7 +2564,7 @@
       <c r="Y33" s="28"/>
       <c r="Z33" s="28"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -2624,7 +2592,7 @@
       <c r="Y34" s="28"/>
       <c r="Z34" s="28"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -2652,7 +2620,7 @@
       <c r="Y35" s="28"/>
       <c r="Z35" s="28"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
@@ -2680,7 +2648,7 @@
       <c r="Y36" s="28"/>
       <c r="Z36" s="28"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -2708,7 +2676,7 @@
       <c r="Y37" s="28"/>
       <c r="Z37" s="28"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
@@ -2736,7 +2704,7 @@
       <c r="Y38" s="28"/>
       <c r="Z38" s="28"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -2764,7 +2732,7 @@
       <c r="Y39" s="28"/>
       <c r="Z39" s="28"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -2792,7 +2760,7 @@
       <c r="Y40" s="28"/>
       <c r="Z40" s="28"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -2820,7 +2788,7 @@
       <c r="Y41" s="28"/>
       <c r="Z41" s="28"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -2848,7 +2816,7 @@
       <c r="Y42" s="28"/>
       <c r="Z42" s="28"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -2876,7 +2844,7 @@
       <c r="Y43" s="28"/>
       <c r="Z43" s="28"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -2904,7 +2872,7 @@
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -2932,7 +2900,7 @@
       <c r="Y45" s="28"/>
       <c r="Z45" s="28"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -2960,7 +2928,7 @@
       <c r="Y46" s="28"/>
       <c r="Z46" s="28"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -2988,7 +2956,7 @@
       <c r="Y47" s="28"/>
       <c r="Z47" s="28"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -3016,7 +2984,7 @@
       <c r="Y48" s="28"/>
       <c r="Z48" s="28"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -3044,7 +3012,7 @@
       <c r="Y49" s="28"/>
       <c r="Z49" s="28"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -3072,7 +3040,7 @@
       <c r="Y50" s="28"/>
       <c r="Z50" s="28"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -3100,7 +3068,7 @@
       <c r="Y51" s="28"/>
       <c r="Z51" s="28"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -3128,7 +3096,7 @@
       <c r="Y52" s="28"/>
       <c r="Z52" s="28"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -3156,7 +3124,7 @@
       <c r="Y53" s="28"/>
       <c r="Z53" s="28"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -3184,7 +3152,7 @@
       <c r="Y54" s="28"/>
       <c r="Z54" s="28"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -3212,7 +3180,7 @@
       <c r="Y55" s="28"/>
       <c r="Z55" s="28"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -3240,7 +3208,7 @@
       <c r="Y56" s="28"/>
       <c r="Z56" s="28"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -3268,7 +3236,7 @@
       <c r="Y57" s="28"/>
       <c r="Z57" s="28"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -3296,7 +3264,7 @@
       <c r="Y58" s="28"/>
       <c r="Z58" s="28"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -3324,7 +3292,7 @@
       <c r="Y59" s="28"/>
       <c r="Z59" s="28"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -3352,7 +3320,7 @@
       <c r="Y60" s="28"/>
       <c r="Z60" s="28"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -3380,7 +3348,7 @@
       <c r="Y61" s="28"/>
       <c r="Z61" s="28"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -3408,7 +3376,7 @@
       <c r="Y62" s="28"/>
       <c r="Z62" s="28"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -3436,7 +3404,7 @@
       <c r="Y63" s="28"/>
       <c r="Z63" s="28"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -3464,7 +3432,7 @@
       <c r="Y64" s="28"/>
       <c r="Z64" s="28"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -3492,7 +3460,7 @@
       <c r="Y65" s="28"/>
       <c r="Z65" s="28"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -3520,7 +3488,7 @@
       <c r="Y66" s="28"/>
       <c r="Z66" s="28"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -3548,7 +3516,7 @@
       <c r="Y67" s="28"/>
       <c r="Z67" s="28"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -3576,7 +3544,7 @@
       <c r="Y68" s="28"/>
       <c r="Z68" s="28"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -3604,7 +3572,7 @@
       <c r="Y69" s="28"/>
       <c r="Z69" s="28"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -3632,7 +3600,7 @@
       <c r="Y70" s="28"/>
       <c r="Z70" s="28"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -3660,7 +3628,7 @@
       <c r="Y71" s="28"/>
       <c r="Z71" s="28"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -3688,7 +3656,7 @@
       <c r="Y72" s="28"/>
       <c r="Z72" s="28"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -3716,7 +3684,7 @@
       <c r="Y73" s="28"/>
       <c r="Z73" s="28"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -3744,7 +3712,7 @@
       <c r="Y74" s="28"/>
       <c r="Z74" s="28"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -3772,7 +3740,7 @@
       <c r="Y75" s="28"/>
       <c r="Z75" s="28"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -3800,7 +3768,7 @@
       <c r="Y76" s="28"/>
       <c r="Z76" s="28"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -3828,7 +3796,7 @@
       <c r="Y77" s="28"/>
       <c r="Z77" s="28"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -3856,7 +3824,7 @@
       <c r="Y78" s="28"/>
       <c r="Z78" s="28"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -3884,7 +3852,7 @@
       <c r="Y79" s="28"/>
       <c r="Z79" s="28"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -3912,7 +3880,7 @@
       <c r="Y80" s="28"/>
       <c r="Z80" s="28"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -3940,7 +3908,7 @@
       <c r="Y81" s="28"/>
       <c r="Z81" s="28"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -3968,7 +3936,7 @@
       <c r="Y82" s="28"/>
       <c r="Z82" s="28"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -3996,7 +3964,7 @@
       <c r="Y83" s="28"/>
       <c r="Z83" s="28"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -4024,7 +3992,7 @@
       <c r="Y84" s="28"/>
       <c r="Z84" s="28"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -4052,7 +4020,7 @@
       <c r="Y85" s="28"/>
       <c r="Z85" s="28"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -4080,7 +4048,7 @@
       <c r="Y86" s="28"/>
       <c r="Z86" s="28"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -4108,7 +4076,7 @@
       <c r="Y87" s="28"/>
       <c r="Z87" s="28"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -4136,7 +4104,7 @@
       <c r="Y88" s="28"/>
       <c r="Z88" s="28"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -4164,7 +4132,7 @@
       <c r="Y89" s="28"/>
       <c r="Z89" s="28"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -4192,7 +4160,7 @@
       <c r="Y90" s="28"/>
       <c r="Z90" s="28"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -4220,7 +4188,7 @@
       <c r="Y91" s="28"/>
       <c r="Z91" s="28"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -4248,7 +4216,7 @@
       <c r="Y92" s="28"/>
       <c r="Z92" s="28"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -4276,7 +4244,7 @@
       <c r="Y93" s="28"/>
       <c r="Z93" s="28"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -4304,7 +4272,7 @@
       <c r="Y94" s="28"/>
       <c r="Z94" s="28"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -4332,7 +4300,7 @@
       <c r="Y95" s="28"/>
       <c r="Z95" s="28"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -4360,7 +4328,7 @@
       <c r="Y96" s="28"/>
       <c r="Z96" s="28"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -4388,7 +4356,7 @@
       <c r="Y97" s="28"/>
       <c r="Z97" s="28"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -4416,7 +4384,7 @@
       <c r="Y98" s="28"/>
       <c r="Z98" s="28"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -4475,7 +4443,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -4507,7 +4475,7 @@
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="C3" s="5" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -4621,12 +4589,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -4741,7 +4709,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4858,7 +4826,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4975,7 +4943,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -4983,7 +4951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
@@ -4991,7 +4959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -4999,7 +4967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -5007,7 +4975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -5015,7 +4983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -5023,7 +4991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -5031,7 +4999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -5039,7 +5007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
@@ -5047,7 +5015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
         <v>51</v>
       </c>
@@ -5055,7 +5023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
@@ -5063,7 +5031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -5071,7 +5039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
@@ -5079,7 +5047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
         <v>55</v>
       </c>
@@ -5087,7 +5055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
@@ -5095,7 +5063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -5103,7 +5071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
@@ -5111,7 +5079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -5119,7 +5087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -5127,7 +5095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
@@ -5135,7 +5103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
@@ -5143,7 +5111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
         <v>63</v>
       </c>
@@ -5151,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
         <v>64</v>
       </c>
@@ -5159,7 +5127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
@@ -5167,7 +5135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
@@ -5175,7 +5143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
         <v>67</v>
       </c>
@@ -5183,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
         <v>68</v>
       </c>
@@ -5191,7 +5159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="10" t="s">
         <v>69</v>
       </c>
@@ -5238,49 +5206,51 @@
   <dimension ref="A4:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:36" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" ht="21">
       <c r="B4" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="B8" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="B9" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="F10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -5414,7 +5384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="B12" t="s">
         <v>73</v>
       </c>
@@ -5425,7 +5395,7 @@
         <v>88</v>
       </c>
       <c r="E12">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F12" t="s">
         <v>91</v>
@@ -5437,15 +5407,15 @@
         <v>76</v>
       </c>
       <c r="I12" s="23">
-        <f t="shared" ref="I12:AI12" si="0">ROUNDDOWN(D45/D$49,5)</f>
-        <v>2.511E-2</v>
+        <f>ROUNDUP(D45/D$49,5)</f>
+        <v>2.512E-2</v>
       </c>
       <c r="J12" s="23">
-        <f t="shared" si="0"/>
-        <v>2.53E-2</v>
+        <f>ROUNDUP(E45/E$49,5)</f>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="K12" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K12:AI12" si="0">ROUNDDOWN(F45/F$49,5)</f>
         <v>2.503E-2</v>
       </c>
       <c r="L12" s="23">
@@ -5548,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="C13" t="s">
         <v>111</v>
       </c>
@@ -5556,7 +5526,7 @@
         <v>88</v>
       </c>
       <c r="E13">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F13" t="s">
         <v>91</v>
@@ -5566,11 +5536,11 @@
       </c>
       <c r="I13" s="23">
         <f>I$12/SUM(I$12,I$17,I$22)*(1-I$28)</f>
-        <v>2.5157895566592151E-2</v>
+        <v>2.512E-2</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" ref="J13:AI13" si="1">J$12/SUM(J$12,J$17,J$22)*(1-J$28)</f>
-        <v>2.5300506010120204E-2</v>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="K13" s="23">
         <f t="shared" si="1"/>
@@ -5674,7 +5644,7 @@
       </c>
       <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="C14" t="s">
         <v>111</v>
       </c>
@@ -5682,7 +5652,7 @@
         <v>88</v>
       </c>
       <c r="E14">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
@@ -5692,11 +5662,11 @@
       </c>
       <c r="I14" s="23">
         <f>I$12/SUM(I$12,I$17,I$22)*(1-I$29)</f>
-        <v>2.5140541797434669E-2</v>
+        <v>2.512E-2</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" ref="J14:AI14" si="2">J$12/SUM(J$12,J$17,J$22)*(1-J$29)</f>
-        <v>2.5300506010120204E-2</v>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="2"/>
@@ -5800,7 +5770,7 @@
       </c>
       <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36">
       <c r="C15" t="s">
         <v>111</v>
       </c>
@@ -5808,7 +5778,7 @@
         <v>88</v>
       </c>
       <c r="E15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F15" t="s">
         <v>91</v>
@@ -5818,11 +5788,11 @@
       </c>
       <c r="I15" s="23">
         <f>I$12/SUM(I$12,I$17,I$22)*(1-I$30)</f>
-        <v>2.5162481534476113E-2</v>
+        <v>2.512E-2</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" ref="J15:AI15" si="3">J$12/SUM(J$12,J$17,J$22)*(1-J$30)</f>
-        <v>2.5300506010120204E-2</v>
+        <v>2.5309999999999999E-2</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="3"/>
@@ -5926,7 +5896,7 @@
       </c>
       <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="E16">
         <v>0</v>
       </c>
@@ -5964,7 +5934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36">
       <c r="B17" t="s">
         <v>74</v>
       </c>
@@ -5976,7 +5946,7 @@
         <v>TRAF</v>
       </c>
       <c r="E17">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
@@ -6099,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36">
       <c r="C18" t="s">
         <v>112</v>
       </c>
@@ -6108,7 +6078,7 @@
         <v>TRAF</v>
       </c>
       <c r="E18">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F18" t="s">
         <v>91</v>
@@ -6118,11 +6088,11 @@
       </c>
       <c r="I18" s="23">
         <f>I$17/SUM(I$12,I$17,I$22)*(1-I$28)</f>
-        <v>9.8237023508735977E-2</v>
+        <v>9.8049999999999998E-2</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" ref="J18:AI18" si="6">J$17/SUM(J$12,J$17,J$22)*(1-J$28)</f>
-        <v>9.8801976039520789E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="K18" s="23">
         <f t="shared" si="6"/>
@@ -6226,7 +6196,7 @@
       </c>
       <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36">
       <c r="C19" t="s">
         <v>112</v>
       </c>
@@ -6235,7 +6205,7 @@
         <v>TRAF</v>
       </c>
       <c r="E19">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
@@ -6245,11 +6215,11 @@
       </c>
       <c r="I19" s="23">
         <f>I$17/SUM(I$12,I$17,I$22)*(1-I$29)</f>
-        <v>9.8169260184725965E-2</v>
+        <v>9.8049999999999998E-2</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" ref="J19:AI19" si="7">J$17/SUM(J$12,J$17,J$22)*(1-J$29)</f>
-        <v>9.8801976039520789E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="K19" s="23">
         <f t="shared" si="7"/>
@@ -6353,7 +6323,7 @@
       </c>
       <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36">
       <c r="C20" t="s">
         <v>112</v>
       </c>
@@ -6362,7 +6332,7 @@
         <v>TRAF</v>
       </c>
       <c r="E20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
@@ -6372,11 +6342,11 @@
       </c>
       <c r="I20" s="23">
         <f>I$17/SUM(I$12,I$17,I$22)*(1-I$30)</f>
-        <v>9.8254930882333044E-2</v>
+        <v>9.8049999999999998E-2</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" ref="J20:AI20" si="8">J$17/SUM(J$12,J$17,J$22)*(1-J$30)</f>
-        <v>9.8801976039520789E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="K20" s="23">
         <f t="shared" si="8"/>
@@ -6480,7 +6450,7 @@
       </c>
       <c r="AJ20" s="24"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36">
       <c r="E21">
         <v>0</v>
       </c>
@@ -6518,7 +6488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36">
       <c r="B22" t="s">
         <v>75</v>
       </c>
@@ -6530,7 +6500,7 @@
         <v>TRAF</v>
       </c>
       <c r="E22">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F22" t="s">
         <v>91</v>
@@ -6546,8 +6516,8 @@
         <v>0.86921000000000004</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="9"/>
-        <v>0.87587999999999999</v>
+        <f>ROUNDUP(E47/E$49,5)</f>
+        <v>0.87588999999999995</v>
       </c>
       <c r="K22" s="23">
         <f t="shared" si="9"/>
@@ -6653,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36">
       <c r="C23" t="s">
         <v>113</v>
       </c>
@@ -6662,7 +6632,7 @@
         <v>TRAF</v>
       </c>
       <c r="E23">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F23" t="s">
         <v>91</v>
@@ -6672,11 +6642,11 @@
       </c>
       <c r="I23" s="23">
         <f>I$22/SUM(I$12,I$17,I$22)*(1-I$28)</f>
-        <v>0.87086795720579713</v>
+        <v>0.86921000000000004</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" ref="J23:AI23" si="11">J$22/SUM(J$12,J$17,J$22)*(1-J$28)</f>
-        <v>0.87589751795035897</v>
+        <v>0.87588999999999995</v>
       </c>
       <c r="K23" s="23">
         <f t="shared" si="11"/>
@@ -6780,7 +6750,7 @@
       </c>
       <c r="AJ23" s="24"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36">
       <c r="C24" t="s">
         <v>113</v>
       </c>
@@ -6789,7 +6759,7 @@
         <v>TRAF</v>
       </c>
       <c r="E24">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -6799,11 +6769,11 @@
       </c>
       <c r="I24" s="23">
         <f>I$22/SUM(I$12,I$17,I$22)*(1-I$29)</f>
-        <v>0.87026723758455549</v>
+        <v>0.86921000000000004</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" ref="J24:AI24" si="12">J$22/SUM(J$12,J$17,J$22)*(1-J$29)</f>
-        <v>0.87589751795035897</v>
+        <v>0.87588999999999995</v>
       </c>
       <c r="K24" s="23">
         <f t="shared" si="12"/>
@@ -6907,7 +6877,7 @@
       </c>
       <c r="AJ24" s="24"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36">
       <c r="C25" t="s">
         <v>113</v>
       </c>
@@ -6916,7 +6886,7 @@
         <v>TRAF</v>
       </c>
       <c r="E25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
@@ -6926,11 +6896,11 @@
       </c>
       <c r="I25" s="23">
         <f>I$22/SUM(I$12,I$17,I$22)*(1-I$30)</f>
-        <v>0.87102670547917094</v>
+        <v>0.86921000000000004</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" ref="J25:AI25" si="13">J$22/SUM(J$12,J$17,J$22)*(1-J$30)</f>
-        <v>0.87589751795035897</v>
+        <v>0.87588999999999995</v>
       </c>
       <c r="K25" s="23">
         <f t="shared" si="13"/>
@@ -7034,7 +7004,7 @@
       </c>
       <c r="AJ25" s="24"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36">
       <c r="E26">
         <v>0</v>
       </c>
@@ -7072,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36">
       <c r="B27" t="s">
         <v>89</v>
       </c>
@@ -7083,7 +7053,7 @@
         <v>88</v>
       </c>
       <c r="E27">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
@@ -7095,15 +7065,15 @@
         <v>90</v>
       </c>
       <c r="I27" s="23">
-        <f t="shared" ref="I27:AI27" si="14">ROUNDDOWN(D48/D$49,5)</f>
-        <v>7.6099999999999996E-3</v>
+        <f>ROUNDUP(D48/D$49,5)</f>
+        <v>7.6199999999999992E-3</v>
       </c>
       <c r="J27" s="23">
-        <f t="shared" si="14"/>
+        <f>ROUNDUP(E48/E$49,5)</f>
         <v>0</v>
       </c>
       <c r="K27" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K27:AI27" si="14">ROUNDDOWN(F48/F$49,5)</f>
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="L27" s="23">
@@ -7206,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36">
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -7214,7 +7184,7 @@
         <v>88</v>
       </c>
       <c r="E28">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
@@ -7223,8 +7193,8 @@
         <v>-1</v>
       </c>
       <c r="I28" s="23">
-        <f>I$27*$C$54/$C$53/($D$48/SUM($D$45:$D$47))</f>
-        <v>5.7371237188748488E-3</v>
+        <f>+I27</f>
+        <v>7.6199999999999992E-3</v>
       </c>
       <c r="J28" s="23">
         <f t="shared" ref="J28:AI28" si="15">J$27*$C$54/$C$53/($D$48/SUM($D$45:$D$47))</f>
@@ -7332,7 +7302,7 @@
       </c>
       <c r="AJ28" s="24"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36">
       <c r="C29" t="s">
         <v>114</v>
       </c>
@@ -7340,7 +7310,7 @@
         <v>88</v>
       </c>
       <c r="E29">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F29" t="s">
         <v>91</v>
@@ -7349,8 +7319,8 @@
         <v>-1</v>
       </c>
       <c r="I29" s="23">
-        <f>I$27*$D$54/$D$53/($D$48/SUM($D$45:$D$47))</f>
-        <v>6.4229604332839947E-3</v>
+        <f>+I28</f>
+        <v>7.6199999999999992E-3</v>
       </c>
       <c r="J29" s="23">
         <f t="shared" ref="J29:AI29" si="16">J$27*$D$54/$D$53/($D$48/SUM($D$45:$D$47))</f>
@@ -7458,7 +7428,7 @@
       </c>
       <c r="AJ29" s="24"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36">
       <c r="C30" t="s">
         <v>114</v>
       </c>
@@ -7466,7 +7436,7 @@
         <v>88</v>
       </c>
       <c r="E30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -7475,8 +7445,8 @@
         <v>-1</v>
       </c>
       <c r="I30" s="23">
-        <f>I$27*$E$54/$E$53/($D$48/SUM($D$45:$D$47))</f>
-        <v>5.555882104019921E-3</v>
+        <f>+I29</f>
+        <v>7.6199999999999992E-3</v>
       </c>
       <c r="J30" s="23">
         <f t="shared" ref="J30:AI30" si="17">J$27*$E$54/$E$53/($D$48/SUM($D$45:$D$47))</f>
@@ -7584,7 +7554,7 @@
       </c>
       <c r="AJ30" s="24"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -7627,20 +7597,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:39">
       <c r="E33">
         <v>2018</v>
       </c>
       <c r="H33" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="43">
         <f t="shared" ref="I33:AI33" si="18">I12+I17+I22+I27</f>
-        <v>0.99997999999999998</v>
+        <v>1</v>
       </c>
       <c r="J33" s="25">
         <f t="shared" si="18"/>
-        <v>0.99997999999999998</v>
+        <v>1</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="18"/>
@@ -7743,14 +7713,14 @@
         <v>0.99997999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:39">
       <c r="E34">
         <v>2019</v>
       </c>
       <c r="H34" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="43">
         <f t="shared" ref="I34:AI34" si="19">I13+I18+I23+I28</f>
         <v>1</v>
       </c>
@@ -7863,14 +7833,14 @@
       <c r="AL34" s="15"/>
       <c r="AM34" s="15"/>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:39">
       <c r="E35">
         <v>2020</v>
       </c>
       <c r="H35" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="43">
         <f t="shared" ref="I35:AI35" si="20">I14+I19+I24+I29</f>
         <v>1</v>
       </c>
@@ -7983,14 +7953,14 @@
       <c r="AL35" s="15"/>
       <c r="AM35" s="15"/>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:39">
       <c r="E36">
         <v>2021</v>
       </c>
       <c r="H36" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="43">
         <f t="shared" ref="I36:AI36" si="21">I15+I20+I25+I30</f>
         <v>1</v>
       </c>
@@ -8103,7 +8073,7 @@
       <c r="AL36" s="15"/>
       <c r="AM36" s="15"/>
     </row>
-    <row r="43" spans="2:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:39" ht="15.75">
       <c r="B43" s="11" t="s">
         <v>115</v>
       </c>
@@ -8136,7 +8106,7 @@
       <c r="AC43" s="12"/>
       <c r="AD43" s="12"/>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:39">
       <c r="B44" s="13" t="s">
         <v>79</v>
       </c>
@@ -8225,7 +8195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:39">
       <c r="B45" s="16" t="s">
         <v>80</v>
       </c>
@@ -8314,7 +8284,7 @@
         <v>3.9124694850571404</v>
       </c>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:39">
       <c r="B46" s="16" t="s">
         <v>82</v>
       </c>
@@ -8403,7 +8373,7 @@
         <v>15.27470963344226</v>
       </c>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:39">
       <c r="B47" s="16" t="s">
         <v>84</v>
       </c>
@@ -8492,7 +8462,7 @@
         <v>135.4089610136557</v>
       </c>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:39">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -8579,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30">
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
         <v>71</v>
@@ -8693,7 +8663,7 @@
         <v>154.59614013215509</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30">
       <c r="C52">
         <v>2019</v>
       </c>
@@ -8704,7 +8674,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30">
       <c r="B53" t="s">
         <v>116</v>
       </c>
@@ -8718,7 +8688,7 @@
         <v>12493</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30">
       <c r="B54" t="s">
         <v>70</v>
       </c>
@@ -8732,7 +8702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30">
       <c r="F58" s="42"/>
     </row>
   </sheetData>
